--- a/Section8_Formula_Formatting.xlsx
+++ b/Section8_Formula_Formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMINA\Documents\UDEMY\EXCEL\Excel+Demo+Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EDE05B-D1A4-4833-9B84-F0B4C8AAAA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AB9C9B-296A-4B81-81FA-4D24FE4326C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,6 +583,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -592,22 +597,17 @@
     <xf numFmtId="165" fontId="5" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -635,105 +635,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1049,7 +951,7 @@
       <c r="G2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1072,7 +974,7 @@
       <c r="G3" s="14">
         <v>5</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="27" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1163,10 +1065,10 @@
       <c r="C9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
@@ -1178,11 +1080,11 @@
       <c r="D10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="30">
         <f>INDEX(C3:G7,MATCH(B10,B3:B7,0),MATCH(C10,C2:G2,0))</f>
         <v>34</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="25"/>
     </row>
   </sheetData>
@@ -1191,7 +1093,7 @@
     <mergeCell ref="E10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G7">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>C3=$E$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1243,7 +1145,7 @@
       <c r="E1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="26" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1260,11 +1162,11 @@
       <c r="D2" s="6">
         <v>948435</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="28">
         <f>D2/C2</f>
         <v>0.21327044590856964</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="26" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1281,7 +1183,7 @@
       <c r="D3" s="6">
         <v>67228.56</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="28">
         <f t="shared" ref="E3:E52" si="0">D3/C3</f>
         <v>0.107234213598923</v>
       </c>
@@ -1299,7 +1201,7 @@
       <c r="D4" s="6">
         <v>1396668.64</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="28">
         <f t="shared" si="0"/>
         <v>0.2722215586695752</v>
       </c>
@@ -1317,7 +1219,7 @@
       <c r="D5" s="6">
         <v>257943</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="28">
         <f t="shared" si="0"/>
         <v>9.648500037405551E-2</v>
       </c>
@@ -1338,7 +1240,7 @@
       <c r="D6" s="6">
         <v>8492127</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="28">
         <f t="shared" si="0"/>
         <v>0.25071490468960944</v>
       </c>
@@ -1356,7 +1258,7 @@
       <c r="D7" s="6">
         <v>1226556.08</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>0.28516197459303216</v>
       </c>
@@ -1374,7 +1276,7 @@
       <c r="D8" s="6">
         <v>870963.25</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="28">
         <f t="shared" si="0"/>
         <v>0.25574706399672303</v>
       </c>
@@ -1392,7 +1294,7 @@
       <c r="D9" s="6">
         <v>166161</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="28">
         <f t="shared" si="0"/>
         <v>0.21204823889739663</v>
       </c>
@@ -1410,7 +1312,7 @@
       <c r="D10" s="6">
         <v>74619.08</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="28">
         <f t="shared" si="0"/>
         <v>0.13043948264077657</v>
       </c>
@@ -1428,7 +1330,7 @@
       <c r="D11" s="6">
         <v>2563588.48</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="28">
         <f t="shared" si="0"/>
         <v>0.16040094158704044</v>
       </c>
@@ -1446,7 +1348,7 @@
       <c r="D12" s="6">
         <v>424630.65</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="28">
         <f t="shared" si="0"/>
         <v>5.1869918510495328E-2</v>
       </c>
@@ -1464,7 +1366,7 @@
       <c r="D13" s="6">
         <v>350042.36000000004</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="28">
         <f t="shared" si="0"/>
         <v>0.28892420124189361</v>
       </c>
@@ -1482,7 +1384,7 @@
       <c r="D14" s="6">
         <v>77162.649999999994</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="28">
         <f t="shared" si="0"/>
         <v>5.9633271069351047E-2</v>
       </c>
@@ -1500,7 +1402,7 @@
       <c r="D15" s="6">
         <v>1493403.16</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="28">
         <f t="shared" si="0"/>
         <v>0.12024864539390447</v>
       </c>
@@ -1518,7 +1420,7 @@
       <c r="D16" s="6">
         <v>935648.75</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="28">
         <f t="shared" si="0"/>
         <v>0.15387732228596895</v>
       </c>
@@ -1536,7 +1438,7 @@
       <c r="D17" s="6">
         <v>282183.15999999997</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="28">
         <f t="shared" si="0"/>
         <v>9.6429226565479406E-2</v>
       </c>
@@ -1554,7 +1456,7 @@
       <c r="D18" s="6">
         <v>520793.42</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="28">
         <f t="shared" si="0"/>
         <v>0.19371742787021959</v>
       </c>
@@ -1572,7 +1474,7 @@
       <c r="D19" s="6">
         <v>1180743.01</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="28">
         <f t="shared" si="0"/>
         <v>0.29213520366948237</v>
       </c>
@@ -1590,7 +1492,7 @@
       <c r="D20" s="6">
         <v>626278.64</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="28">
         <f t="shared" si="0"/>
         <v>0.14013918177228968</v>
       </c>
@@ -1608,7 +1510,7 @@
       <c r="D21" s="6">
         <v>223195.91</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="28">
         <f t="shared" si="0"/>
         <v>0.17506618831098036</v>
       </c>
@@ -1626,7 +1528,7 @@
       <c r="D22" s="6">
         <v>1399498.36</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="28">
         <f t="shared" si="0"/>
         <v>0.26423148479954445</v>
       </c>
@@ -1644,7 +1546,7 @@
       <c r="D23" s="6">
         <v>1348044.3699999999</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="28">
         <f t="shared" si="0"/>
         <v>0.21232064496730793</v>
       </c>
@@ -1662,7 +1564,7 @@
       <c r="D24" s="6">
         <v>1014215.4</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="28">
         <f t="shared" si="0"/>
         <v>0.10204971723943909</v>
       </c>
@@ -1680,7 +1582,7 @@
       <c r="D25" s="6">
         <v>1195974.96</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="28">
         <f t="shared" si="0"/>
         <v>0.24311008543790916</v>
       </c>
@@ -1698,7 +1600,7 @@
       <c r="D26" s="6">
         <v>163632.9</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="28">
         <f t="shared" si="0"/>
         <v>5.752287269682331E-2</v>
       </c>
@@ -1716,7 +1618,7 @@
       <c r="D27" s="6">
         <v>737321.43</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="28">
         <f t="shared" si="0"/>
         <v>0.13177723413826575</v>
       </c>
@@ -1734,7 +1636,7 @@
       <c r="D28" s="6">
         <v>208951.94999999998</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="28">
         <f t="shared" si="0"/>
         <v>0.23160397696728532</v>
       </c>
@@ -1752,7 +1654,7 @@
       <c r="D29" s="6">
         <v>433519.12</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="28">
         <f t="shared" si="0"/>
         <v>0.25333284246781468</v>
       </c>
@@ -1770,7 +1672,7 @@
       <c r="D30" s="6">
         <v>454378.54</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="28">
         <f t="shared" si="0"/>
         <v>0.22738743815234977</v>
       </c>
@@ -1788,7 +1690,7 @@
       <c r="D31" s="6">
         <v>333845.36</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="28">
         <f t="shared" si="0"/>
         <v>0.27014819717977062</v>
       </c>
@@ -1806,7 +1708,7 @@
       <c r="D32" s="6">
         <v>2380883</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="28">
         <f t="shared" si="0"/>
         <v>0.28295507080166621</v>
       </c>
@@ -1824,7 +1726,7 @@
       <c r="D33" s="6">
         <v>562865.79999999993</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="28">
         <f t="shared" si="0"/>
         <v>0.30942911834005293</v>
       </c>
@@ -1842,7 +1744,7 @@
       <c r="D34" s="6">
         <v>3423896.26</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="28">
         <f t="shared" si="0"/>
         <v>0.18042863638876319</v>
       </c>
@@ -1860,7 +1762,7 @@
       <c r="D35" s="6">
         <v>1305166.08</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="28">
         <f t="shared" si="0"/>
         <v>0.16214627012268004</v>
       </c>
@@ -1878,7 +1780,7 @@
       <c r="D36" s="6">
         <v>91162</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="28">
         <f t="shared" si="0"/>
         <v>0.1419526627218935</v>
       </c>
@@ -1896,7 +1798,7 @@
       <c r="D37" s="6">
         <v>3184585.2</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="28">
         <f t="shared" si="0"/>
         <v>0.28050259223439511</v>
       </c>
@@ -1914,7 +1816,7 @@
       <c r="D38" s="6">
         <v>265244.78000000003</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="28">
         <f t="shared" si="0"/>
         <v>7.68679734334419E-2</v>
       </c>
@@ -1932,7 +1834,7 @@
       <c r="D39" s="6">
         <v>257362.93000000002</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="28">
         <f t="shared" si="0"/>
         <v>7.5221548261398347E-2</v>
       </c>
@@ -1950,7 +1852,7 @@
       <c r="D40" s="6">
         <v>2108095.1800000002</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="28">
         <f t="shared" si="0"/>
         <v>0.17165425540837131</v>
       </c>
@@ -1968,7 +1870,7 @@
       <c r="D41" s="6">
         <v>171151.85</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="28">
         <f t="shared" si="0"/>
         <v>0.16326313841492904</v>
       </c>
@@ -1986,7 +1888,7 @@
       <c r="D42" s="6">
         <v>411020.2</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="28">
         <f t="shared" si="0"/>
         <v>0.10244740045642935</v>
       </c>
@@ -2004,7 +1906,7 @@
       <c r="D43" s="6">
         <v>102596.72</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="28">
         <f t="shared" si="0"/>
         <v>0.13591777903778793</v>
       </c>
@@ -2022,7 +1924,7 @@
       <c r="D44" s="6">
         <v>634265.13</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="28">
         <f t="shared" si="0"/>
         <v>0.11148419405397833</v>
       </c>
@@ -2040,7 +1942,7 @@
       <c r="D45" s="6">
         <v>2299911.2000000002</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="28">
         <f t="shared" si="0"/>
         <v>0.1102978636876781</v>
       </c>
@@ -2058,7 +1960,7 @@
       <c r="D46" s="6">
         <v>388384.73000000004</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="28">
         <f t="shared" si="0"/>
         <v>0.17391640758043839</v>
       </c>
@@ -2076,7 +1978,7 @@
       <c r="D47" s="6">
         <v>159402.47999999998</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="28">
         <f t="shared" si="0"/>
         <v>0.26181900605590747</v>
       </c>
@@ -2094,7 +1996,7 @@
       <c r="D48" s="6">
         <v>1438739</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="28">
         <f t="shared" si="0"/>
         <v>0.20325435490353555</v>
       </c>
@@ -2112,7 +2014,7 @@
       <c r="D49" s="6">
         <v>1371305.83</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="28">
         <f t="shared" si="0"/>
         <v>0.23265654539497918</v>
       </c>
@@ -2130,7 +2032,7 @@
       <c r="D50" s="6">
         <v>533269.76000000001</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="28">
         <f t="shared" si="0"/>
         <v>0.29489398034887165</v>
       </c>
@@ -2148,7 +2050,7 @@
       <c r="D51" s="6">
         <v>1415260.5</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="28">
         <f t="shared" si="0"/>
         <v>0.26386022643057233</v>
       </c>
@@ -2166,14 +2068,14 @@
       <c r="D52" s="6">
         <v>95463.94</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="28">
         <f t="shared" si="0"/>
         <v>0.1933321587259155</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E52">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(LEFT($A2,1)="I", RIGHT($A2,1)="a")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2218,7 +2120,7 @@
       <c r="E1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="26" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2235,11 +2137,11 @@
       <c r="D2" s="6">
         <v>948435</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="28">
         <f>D2/C2</f>
         <v>0.21327044590856964</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="26" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2256,7 +2158,7 @@
       <c r="D3" s="6">
         <v>67228.56</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="28">
         <f t="shared" ref="E3:E52" si="0">D3/C3</f>
         <v>0.107234213598923</v>
       </c>
@@ -2274,7 +2176,7 @@
       <c r="D4" s="6">
         <v>1396668.64</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="28">
         <f t="shared" si="0"/>
         <v>0.2722215586695752</v>
       </c>
@@ -2292,7 +2194,7 @@
       <c r="D5" s="6">
         <v>257943</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="28">
         <f t="shared" si="0"/>
         <v>9.648500037405551E-2</v>
       </c>
@@ -2313,7 +2215,7 @@
       <c r="D6" s="6">
         <v>8492127</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="28">
         <f t="shared" si="0"/>
         <v>0.25071490468960944</v>
       </c>
@@ -2331,7 +2233,7 @@
       <c r="D7" s="6">
         <v>1226556.08</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>0.28516197459303216</v>
       </c>
@@ -2349,7 +2251,7 @@
       <c r="D8" s="6">
         <v>870963.25</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="28">
         <f t="shared" si="0"/>
         <v>0.25574706399672303</v>
       </c>
@@ -2367,7 +2269,7 @@
       <c r="D9" s="6">
         <v>166161</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="28">
         <f t="shared" si="0"/>
         <v>0.21204823889739663</v>
       </c>
@@ -2385,7 +2287,7 @@
       <c r="D10" s="6">
         <v>74619.08</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="28">
         <f t="shared" si="0"/>
         <v>0.13043948264077657</v>
       </c>
@@ -2403,7 +2305,7 @@
       <c r="D11" s="6">
         <v>2563588.48</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="28">
         <f t="shared" si="0"/>
         <v>0.16040094158704044</v>
       </c>
@@ -2421,7 +2323,7 @@
       <c r="D12" s="6">
         <v>424630.65</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="28">
         <f t="shared" si="0"/>
         <v>5.1869918510495328E-2</v>
       </c>
@@ -2439,7 +2341,7 @@
       <c r="D13" s="6">
         <v>350042.36000000004</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="28">
         <f t="shared" si="0"/>
         <v>0.28892420124189361</v>
       </c>
@@ -2457,7 +2359,7 @@
       <c r="D14" s="6">
         <v>77162.649999999994</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="28">
         <f t="shared" si="0"/>
         <v>5.9633271069351047E-2</v>
       </c>
@@ -2475,7 +2377,7 @@
       <c r="D15" s="6">
         <v>1493403.16</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="28">
         <f t="shared" si="0"/>
         <v>0.12024864539390447</v>
       </c>
@@ -2493,7 +2395,7 @@
       <c r="D16" s="6">
         <v>935648.75</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="28">
         <f t="shared" si="0"/>
         <v>0.15387732228596895</v>
       </c>
@@ -2511,7 +2413,7 @@
       <c r="D17" s="6">
         <v>282183.15999999997</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="28">
         <f t="shared" si="0"/>
         <v>9.6429226565479406E-2</v>
       </c>
@@ -2529,7 +2431,7 @@
       <c r="D18" s="6">
         <v>520793.42</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="28">
         <f t="shared" si="0"/>
         <v>0.19371742787021959</v>
       </c>
@@ -2547,7 +2449,7 @@
       <c r="D19" s="6">
         <v>1180743.01</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="28">
         <f t="shared" si="0"/>
         <v>0.29213520366948237</v>
       </c>
@@ -2565,7 +2467,7 @@
       <c r="D20" s="6">
         <v>626278.64</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="28">
         <f t="shared" si="0"/>
         <v>0.14013918177228968</v>
       </c>
@@ -2583,7 +2485,7 @@
       <c r="D21" s="6">
         <v>223195.91</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="28">
         <f t="shared" si="0"/>
         <v>0.17506618831098036</v>
       </c>
@@ -2601,7 +2503,7 @@
       <c r="D22" s="6">
         <v>1399498.36</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="28">
         <f t="shared" si="0"/>
         <v>0.26423148479954445</v>
       </c>
@@ -2619,7 +2521,7 @@
       <c r="D23" s="6">
         <v>1348044.3699999999</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="28">
         <f t="shared" si="0"/>
         <v>0.21232064496730793</v>
       </c>
@@ -2637,7 +2539,7 @@
       <c r="D24" s="6">
         <v>1014215.4</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="28">
         <f t="shared" si="0"/>
         <v>0.10204971723943909</v>
       </c>
@@ -2655,7 +2557,7 @@
       <c r="D25" s="6">
         <v>1195974.96</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="28">
         <f t="shared" si="0"/>
         <v>0.24311008543790916</v>
       </c>
@@ -2673,7 +2575,7 @@
       <c r="D26" s="6">
         <v>163632.9</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="28">
         <f t="shared" si="0"/>
         <v>5.752287269682331E-2</v>
       </c>
@@ -2691,7 +2593,7 @@
       <c r="D27" s="6">
         <v>737321.43</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="28">
         <f t="shared" si="0"/>
         <v>0.13177723413826575</v>
       </c>
@@ -2709,7 +2611,7 @@
       <c r="D28" s="6">
         <v>208951.94999999998</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="28">
         <f t="shared" si="0"/>
         <v>0.23160397696728532</v>
       </c>
@@ -2727,7 +2629,7 @@
       <c r="D29" s="6">
         <v>433519.12</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="28">
         <f t="shared" si="0"/>
         <v>0.25333284246781468</v>
       </c>
@@ -2745,7 +2647,7 @@
       <c r="D30" s="6">
         <v>454378.54</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="28">
         <f t="shared" si="0"/>
         <v>0.22738743815234977</v>
       </c>
@@ -2763,7 +2665,7 @@
       <c r="D31" s="6">
         <v>333845.36</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="28">
         <f t="shared" si="0"/>
         <v>0.27014819717977062</v>
       </c>
@@ -2781,7 +2683,7 @@
       <c r="D32" s="6">
         <v>2380883</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="28">
         <f t="shared" si="0"/>
         <v>0.28295507080166621</v>
       </c>
@@ -2799,7 +2701,7 @@
       <c r="D33" s="6">
         <v>562865.79999999993</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="28">
         <f t="shared" si="0"/>
         <v>0.30942911834005293</v>
       </c>
@@ -2817,7 +2719,7 @@
       <c r="D34" s="6">
         <v>3423896.26</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="28">
         <f t="shared" si="0"/>
         <v>0.18042863638876319</v>
       </c>
@@ -2835,7 +2737,7 @@
       <c r="D35" s="6">
         <v>1305166.08</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="28">
         <f t="shared" si="0"/>
         <v>0.16214627012268004</v>
       </c>
@@ -2853,7 +2755,7 @@
       <c r="D36" s="6">
         <v>91162</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="28">
         <f t="shared" si="0"/>
         <v>0.1419526627218935</v>
       </c>
@@ -2871,7 +2773,7 @@
       <c r="D37" s="6">
         <v>3184585.2</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="28">
         <f t="shared" si="0"/>
         <v>0.28050259223439511</v>
       </c>
@@ -2889,7 +2791,7 @@
       <c r="D38" s="6">
         <v>265244.78000000003</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="28">
         <f t="shared" si="0"/>
         <v>7.68679734334419E-2</v>
       </c>
@@ -2907,7 +2809,7 @@
       <c r="D39" s="6">
         <v>257362.93000000002</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="28">
         <f t="shared" si="0"/>
         <v>7.5221548261398347E-2</v>
       </c>
@@ -2925,7 +2827,7 @@
       <c r="D40" s="6">
         <v>2108095.1800000002</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="28">
         <f t="shared" si="0"/>
         <v>0.17165425540837131</v>
       </c>
@@ -2943,7 +2845,7 @@
       <c r="D41" s="6">
         <v>171151.85</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="28">
         <f t="shared" si="0"/>
         <v>0.16326313841492904</v>
       </c>
@@ -2961,7 +2863,7 @@
       <c r="D42" s="6">
         <v>411020.2</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="28">
         <f t="shared" si="0"/>
         <v>0.10244740045642935</v>
       </c>
@@ -2979,7 +2881,7 @@
       <c r="D43" s="6">
         <v>102596.72</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="28">
         <f t="shared" si="0"/>
         <v>0.13591777903778793</v>
       </c>
@@ -2997,7 +2899,7 @@
       <c r="D44" s="6">
         <v>634265.13</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="28">
         <f t="shared" si="0"/>
         <v>0.11148419405397833</v>
       </c>
@@ -3015,7 +2917,7 @@
       <c r="D45" s="6">
         <v>2299911.2000000002</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="28">
         <f t="shared" si="0"/>
         <v>0.1102978636876781</v>
       </c>
@@ -3033,7 +2935,7 @@
       <c r="D46" s="6">
         <v>388384.73000000004</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="28">
         <f t="shared" si="0"/>
         <v>0.17391640758043839</v>
       </c>
@@ -3051,7 +2953,7 @@
       <c r="D47" s="6">
         <v>159402.47999999998</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="28">
         <f t="shared" si="0"/>
         <v>0.26181900605590747</v>
       </c>
@@ -3069,7 +2971,7 @@
       <c r="D48" s="6">
         <v>1438739</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="28">
         <f t="shared" si="0"/>
         <v>0.20325435490353555</v>
       </c>
@@ -3087,7 +2989,7 @@
       <c r="D49" s="6">
         <v>1371305.83</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="28">
         <f t="shared" si="0"/>
         <v>0.23265654539497918</v>
       </c>
@@ -3105,7 +3007,7 @@
       <c r="D50" s="6">
         <v>533269.76000000001</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="28">
         <f t="shared" si="0"/>
         <v>0.29489398034887165</v>
       </c>
@@ -3123,7 +3025,7 @@
       <c r="D51" s="6">
         <v>1415260.5</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="28">
         <f t="shared" si="0"/>
         <v>0.26386022643057233</v>
       </c>
@@ -3141,14 +3043,14 @@
       <c r="D52" s="6">
         <v>95463.94</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="28">
         <f t="shared" si="0"/>
         <v>0.1933321587259155</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E52">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>LEFT($A2,1)="I"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3193,7 +3095,7 @@
       <c r="E1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="26" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3210,11 +3112,11 @@
       <c r="D2" s="6">
         <v>948435</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="28">
         <f>D2/C2</f>
         <v>0.21327044590856964</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="26" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3231,7 +3133,7 @@
       <c r="D3" s="6">
         <v>67228.56</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="28">
         <f t="shared" ref="E3:E52" si="0">D3/C3</f>
         <v>0.107234213598923</v>
       </c>
@@ -3249,7 +3151,7 @@
       <c r="D4" s="6">
         <v>1396668.64</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="28">
         <f t="shared" si="0"/>
         <v>0.2722215586695752</v>
       </c>
@@ -3267,7 +3169,7 @@
       <c r="D5" s="6">
         <v>257943</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="28">
         <f t="shared" si="0"/>
         <v>9.648500037405551E-2</v>
       </c>
@@ -3288,7 +3190,7 @@
       <c r="D6" s="6">
         <v>8492127</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="28">
         <f t="shared" si="0"/>
         <v>0.25071490468960944</v>
       </c>
@@ -3306,7 +3208,7 @@
       <c r="D7" s="6">
         <v>1226556.08</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>0.28516197459303216</v>
       </c>
@@ -3324,7 +3226,7 @@
       <c r="D8" s="6">
         <v>870963.25</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="28">
         <f t="shared" si="0"/>
         <v>0.25574706399672303</v>
       </c>
@@ -3342,7 +3244,7 @@
       <c r="D9" s="6">
         <v>166161</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="28">
         <f t="shared" si="0"/>
         <v>0.21204823889739663</v>
       </c>
@@ -3360,7 +3262,7 @@
       <c r="D10" s="6">
         <v>74619.08</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="28">
         <f t="shared" si="0"/>
         <v>0.13043948264077657</v>
       </c>
@@ -3378,7 +3280,7 @@
       <c r="D11" s="6">
         <v>2563588.48</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="28">
         <f t="shared" si="0"/>
         <v>0.16040094158704044</v>
       </c>
@@ -3396,7 +3298,7 @@
       <c r="D12" s="6">
         <v>424630.65</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="28">
         <f t="shared" si="0"/>
         <v>5.1869918510495328E-2</v>
       </c>
@@ -3414,7 +3316,7 @@
       <c r="D13" s="6">
         <v>350042.36000000004</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="28">
         <f t="shared" si="0"/>
         <v>0.28892420124189361</v>
       </c>
@@ -3432,7 +3334,7 @@
       <c r="D14" s="6">
         <v>77162.649999999994</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="28">
         <f t="shared" si="0"/>
         <v>5.9633271069351047E-2</v>
       </c>
@@ -3450,7 +3352,7 @@
       <c r="D15" s="6">
         <v>1493403.16</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="28">
         <f t="shared" si="0"/>
         <v>0.12024864539390447</v>
       </c>
@@ -3468,7 +3370,7 @@
       <c r="D16" s="6">
         <v>935648.75</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="28">
         <f t="shared" si="0"/>
         <v>0.15387732228596895</v>
       </c>
@@ -3486,7 +3388,7 @@
       <c r="D17" s="6">
         <v>282183.15999999997</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="28">
         <f t="shared" si="0"/>
         <v>9.6429226565479406E-2</v>
       </c>
@@ -3504,7 +3406,7 @@
       <c r="D18" s="6">
         <v>520793.42</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="28">
         <f t="shared" si="0"/>
         <v>0.19371742787021959</v>
       </c>
@@ -3522,7 +3424,7 @@
       <c r="D19" s="6">
         <v>1180743.01</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="28">
         <f t="shared" si="0"/>
         <v>0.29213520366948237</v>
       </c>
@@ -3540,7 +3442,7 @@
       <c r="D20" s="6">
         <v>626278.64</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="28">
         <f t="shared" si="0"/>
         <v>0.14013918177228968</v>
       </c>
@@ -3558,7 +3460,7 @@
       <c r="D21" s="6">
         <v>223195.91</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="28">
         <f t="shared" si="0"/>
         <v>0.17506618831098036</v>
       </c>
@@ -3576,7 +3478,7 @@
       <c r="D22" s="6">
         <v>1399498.36</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="28">
         <f t="shared" si="0"/>
         <v>0.26423148479954445</v>
       </c>
@@ -3594,7 +3496,7 @@
       <c r="D23" s="6">
         <v>1348044.3699999999</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="28">
         <f t="shared" si="0"/>
         <v>0.21232064496730793</v>
       </c>
@@ -3612,7 +3514,7 @@
       <c r="D24" s="6">
         <v>1014215.4</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="28">
         <f t="shared" si="0"/>
         <v>0.10204971723943909</v>
       </c>
@@ -3630,7 +3532,7 @@
       <c r="D25" s="6">
         <v>1195974.96</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="28">
         <f t="shared" si="0"/>
         <v>0.24311008543790916</v>
       </c>
@@ -3648,7 +3550,7 @@
       <c r="D26" s="6">
         <v>163632.9</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="28">
         <f t="shared" si="0"/>
         <v>5.752287269682331E-2</v>
       </c>
@@ -3666,7 +3568,7 @@
       <c r="D27" s="6">
         <v>737321.43</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="28">
         <f t="shared" si="0"/>
         <v>0.13177723413826575</v>
       </c>
@@ -3684,7 +3586,7 @@
       <c r="D28" s="6">
         <v>208951.94999999998</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="28">
         <f t="shared" si="0"/>
         <v>0.23160397696728532</v>
       </c>
@@ -3702,7 +3604,7 @@
       <c r="D29" s="6">
         <v>433519.12</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="28">
         <f t="shared" si="0"/>
         <v>0.25333284246781468</v>
       </c>
@@ -3720,7 +3622,7 @@
       <c r="D30" s="6">
         <v>454378.54</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="28">
         <f t="shared" si="0"/>
         <v>0.22738743815234977</v>
       </c>
@@ -3738,7 +3640,7 @@
       <c r="D31" s="6">
         <v>333845.36</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="28">
         <f t="shared" si="0"/>
         <v>0.27014819717977062</v>
       </c>
@@ -3756,7 +3658,7 @@
       <c r="D32" s="6">
         <v>2380883</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="28">
         <f t="shared" si="0"/>
         <v>0.28295507080166621</v>
       </c>
@@ -3774,7 +3676,7 @@
       <c r="D33" s="6">
         <v>562865.79999999993</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="28">
         <f t="shared" si="0"/>
         <v>0.30942911834005293</v>
       </c>
@@ -3792,7 +3694,7 @@
       <c r="D34" s="6">
         <v>3423896.26</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="28">
         <f t="shared" si="0"/>
         <v>0.18042863638876319</v>
       </c>
@@ -3810,7 +3712,7 @@
       <c r="D35" s="6">
         <v>1305166.08</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="28">
         <f t="shared" si="0"/>
         <v>0.16214627012268004</v>
       </c>
@@ -3828,7 +3730,7 @@
       <c r="D36" s="6">
         <v>91162</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="28">
         <f t="shared" si="0"/>
         <v>0.1419526627218935</v>
       </c>
@@ -3846,7 +3748,7 @@
       <c r="D37" s="6">
         <v>3184585.2</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="28">
         <f t="shared" si="0"/>
         <v>0.28050259223439511</v>
       </c>
@@ -3864,7 +3766,7 @@
       <c r="D38" s="6">
         <v>265244.78000000003</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="28">
         <f t="shared" si="0"/>
         <v>7.68679734334419E-2</v>
       </c>
@@ -3882,7 +3784,7 @@
       <c r="D39" s="6">
         <v>257362.93000000002</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="28">
         <f t="shared" si="0"/>
         <v>7.5221548261398347E-2</v>
       </c>
@@ -3900,7 +3802,7 @@
       <c r="D40" s="6">
         <v>2108095.1800000002</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="28">
         <f t="shared" si="0"/>
         <v>0.17165425540837131</v>
       </c>
@@ -3918,7 +3820,7 @@
       <c r="D41" s="6">
         <v>171151.85</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="28">
         <f t="shared" si="0"/>
         <v>0.16326313841492904</v>
       </c>
@@ -3936,7 +3838,7 @@
       <c r="D42" s="6">
         <v>411020.2</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="28">
         <f t="shared" si="0"/>
         <v>0.10244740045642935</v>
       </c>
@@ -3954,7 +3856,7 @@
       <c r="D43" s="6">
         <v>102596.72</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="28">
         <f t="shared" si="0"/>
         <v>0.13591777903778793</v>
       </c>
@@ -3972,7 +3874,7 @@
       <c r="D44" s="6">
         <v>634265.13</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="28">
         <f t="shared" si="0"/>
         <v>0.11148419405397833</v>
       </c>
@@ -3990,7 +3892,7 @@
       <c r="D45" s="6">
         <v>2299911.2000000002</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="28">
         <f t="shared" si="0"/>
         <v>0.1102978636876781</v>
       </c>
@@ -4008,7 +3910,7 @@
       <c r="D46" s="6">
         <v>388384.73000000004</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="28">
         <f t="shared" si="0"/>
         <v>0.17391640758043839</v>
       </c>
@@ -4026,7 +3928,7 @@
       <c r="D47" s="6">
         <v>159402.47999999998</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="28">
         <f t="shared" si="0"/>
         <v>0.26181900605590747</v>
       </c>
@@ -4044,7 +3946,7 @@
       <c r="D48" s="6">
         <v>1438739</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="28">
         <f t="shared" si="0"/>
         <v>0.20325435490353555</v>
       </c>
@@ -4062,7 +3964,7 @@
       <c r="D49" s="6">
         <v>1371305.83</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="28">
         <f t="shared" si="0"/>
         <v>0.23265654539497918</v>
       </c>
@@ -4080,7 +3982,7 @@
       <c r="D50" s="6">
         <v>533269.76000000001</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="28">
         <f t="shared" si="0"/>
         <v>0.29489398034887165</v>
       </c>
@@ -4098,7 +4000,7 @@
       <c r="D51" s="6">
         <v>1415260.5</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="28">
         <f t="shared" si="0"/>
         <v>0.26386022643057233</v>
       </c>
@@ -4116,14 +4018,14 @@
       <c r="D52" s="6">
         <v>95463.94</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="28">
         <f t="shared" si="0"/>
         <v>0.1933321587259155</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E52">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C2&gt;5000000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4165,7 +4067,7 @@
       <c r="D1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="26" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4182,7 +4084,7 @@
       <c r="D2" s="6">
         <v>948435</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="26" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4888,7 +4790,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D52">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(), 2)=0</formula>
     </cfRule>
   </conditionalFormatting>
